--- a/resources/data-imports/Affixes/stat_modifiers.xlsx
+++ b/resources/data-imports/Affixes/stat_modifiers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="163">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">resistance_reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affix_type</t>
   </si>
   <si>
     <t xml:space="preserve">Soldiers Hope</t>
@@ -611,10 +614,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS59"/>
+  <dimension ref="A1:AT59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2:M59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AT2" activeCellId="0" sqref="AT2:AT59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -653,6 +656,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="43" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="17.24"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -791,16 +795,19 @@
       <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AT1" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0.01</v>
@@ -884,7 +891,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP2" s="1" t="n">
         <v>0</v>
@@ -896,6 +903,9 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -904,10 +914,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0.011</v>
@@ -991,7 +1001,7 @@
         <v>1360</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP3" s="1" t="n">
         <v>0</v>
@@ -1003,6 +1013,9 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1011,10 +1024,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>0.012</v>
@@ -1098,7 +1111,7 @@
         <v>1849</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP4" s="1" t="n">
         <v>0</v>
@@ -1110,6 +1123,9 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1118,10 +1134,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>0.0132</v>
@@ -1205,7 +1221,7 @@
         <v>2513</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP5" s="1" t="n">
         <v>0</v>
@@ -1217,6 +1233,9 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1225,10 +1244,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>0.0145</v>
@@ -1312,7 +1331,7 @@
         <v>3416</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP6" s="1" t="n">
         <v>0</v>
@@ -1324,6 +1343,9 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1332,10 +1354,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>0.0159</v>
@@ -1419,7 +1441,7 @@
         <v>4644</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP7" s="1" t="n">
         <v>0</v>
@@ -1431,6 +1453,9 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1439,10 +1464,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>0.0175</v>
@@ -1526,7 +1551,7 @@
         <v>6313</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP8" s="1" t="n">
         <v>0</v>
@@ -1538,6 +1563,9 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1546,10 +1574,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>0.0192</v>
@@ -1633,7 +1661,7 @@
         <v>8582</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP9" s="1" t="n">
         <v>0</v>
@@ -1645,6 +1673,9 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1653,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>0.021</v>
@@ -1740,7 +1771,7 @@
         <v>11700</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP10" s="1" t="n">
         <v>0</v>
@@ -1752,6 +1783,9 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,10 +1794,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>0.0231</v>
@@ -1847,7 +1881,7 @@
         <v>15900</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP11" s="1" t="n">
         <v>0</v>
@@ -1859,6 +1893,9 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,10 +1904,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>0.0253</v>
@@ -1954,7 +1991,7 @@
         <v>21600</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP12" s="1" t="n">
         <v>0</v>
@@ -1966,6 +2003,9 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1974,10 +2014,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>0.0278</v>
@@ -2061,7 +2101,7 @@
         <v>29300</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP13" s="1" t="n">
         <v>0</v>
@@ -2073,6 +2113,9 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2081,10 +2124,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>0.0305</v>
@@ -2168,7 +2211,7 @@
         <v>39900</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP14" s="1" t="n">
         <v>0</v>
@@ -2180,6 +2223,9 @@
         <v>0</v>
       </c>
       <c r="AS14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,10 +2234,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>0.0335</v>
@@ -2275,7 +2321,7 @@
         <v>54200</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP15" s="1" t="n">
         <v>0</v>
@@ -2287,6 +2333,9 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2295,10 +2344,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>0.0367</v>
@@ -2382,7 +2431,7 @@
         <v>73700</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP16" s="1" t="n">
         <v>0</v>
@@ -2394,6 +2443,9 @@
         <v>0</v>
       </c>
       <c r="AS16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2402,10 +2454,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>0.0403</v>
@@ -2489,7 +2541,7 @@
         <v>100100</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP17" s="1" t="n">
         <v>0</v>
@@ -2501,6 +2553,9 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2509,10 +2564,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>0.0442</v>
@@ -2596,7 +2651,7 @@
         <v>136100</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP18" s="1" t="n">
         <v>0</v>
@@ -2608,6 +2663,9 @@
         <v>0</v>
       </c>
       <c r="AS18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2616,10 +2674,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>0.0486</v>
@@ -2703,7 +2761,7 @@
         <v>185000</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP19" s="1" t="n">
         <v>0</v>
@@ -2715,6 +2773,9 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2723,10 +2784,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>0.0533</v>
@@ -2810,7 +2871,7 @@
         <v>251600</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP20" s="1" t="n">
         <v>0</v>
@@ -2822,6 +2883,9 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2830,10 +2894,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>0.0585</v>
@@ -2917,7 +2981,7 @@
         <v>342000</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP21" s="1" t="n">
         <v>0</v>
@@ -2929,6 +2993,9 @@
         <v>0</v>
       </c>
       <c r="AS21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2937,10 +3004,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>0.0642</v>
@@ -3024,7 +3091,7 @@
         <v>464900</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP22" s="1" t="n">
         <v>0</v>
@@ -3036,6 +3103,9 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3044,10 +3114,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>0.0704</v>
@@ -3131,7 +3201,7 @@
         <v>632100</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP23" s="1" t="n">
         <v>0</v>
@@ -3143,6 +3213,9 @@
         <v>0</v>
       </c>
       <c r="AS23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3151,10 +3224,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>0.0773</v>
@@ -3238,7 +3311,7 @@
         <v>859300</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP24" s="1" t="n">
         <v>0</v>
@@ -3250,6 +3323,9 @@
         <v>0</v>
       </c>
       <c r="AS24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3258,10 +3334,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>0.0848</v>
@@ -3345,7 +3421,7 @@
         <v>1168100</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP25" s="1" t="n">
         <v>0</v>
@@ -3357,6 +3433,9 @@
         <v>0</v>
       </c>
       <c r="AS25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3365,10 +3444,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>0.0931</v>
@@ -3452,7 +3531,7 @@
         <v>1588100</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP26" s="1" t="n">
         <v>0</v>
@@ -3464,6 +3543,9 @@
         <v>0</v>
       </c>
       <c r="AS26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3472,10 +3554,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>0.1021</v>
@@ -3559,7 +3641,7 @@
         <v>2158900</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP27" s="1" t="n">
         <v>0</v>
@@ -3571,6 +3653,9 @@
         <v>0</v>
       </c>
       <c r="AS27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3579,10 +3664,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>0.1121</v>
@@ -3666,7 +3751,7 @@
         <v>2935000</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP28" s="1" t="n">
         <v>0</v>
@@ -3678,6 +3763,9 @@
         <v>0</v>
       </c>
       <c r="AS28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3686,10 +3774,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>0.123</v>
@@ -3773,7 +3861,7 @@
         <v>3990000</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP29" s="1" t="n">
         <v>0</v>
@@ -3785,6 +3873,9 @@
         <v>0</v>
       </c>
       <c r="AS29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3793,10 +3884,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>0.135</v>
@@ -3880,7 +3971,7 @@
         <v>5424300</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP30" s="1" t="n">
         <v>0</v>
@@ -3892,6 +3983,9 @@
         <v>0</v>
       </c>
       <c r="AS30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3900,10 +3994,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>0.1988</v>
@@ -3987,7 +4081,7 @@
         <v>9897600</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP31" s="1" t="n">
         <v>0</v>
@@ -3999,6 +4093,9 @@
         <v>0</v>
       </c>
       <c r="AS31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4007,10 +4104,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>0.2204</v>
@@ -4094,7 +4191,7 @@
         <v>13592700</v>
       </c>
       <c r="AO32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP32" s="1" t="n">
         <v>0</v>
@@ -4106,6 +4203,9 @@
         <v>0</v>
       </c>
       <c r="AS32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4114,10 +4214,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>0.2444</v>
@@ -4201,7 +4301,7 @@
         <v>18667300</v>
       </c>
       <c r="AO33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP33" s="1" t="n">
         <v>0</v>
@@ -4213,6 +4313,9 @@
         <v>0</v>
       </c>
       <c r="AS33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4221,10 +4324,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>0.2709</v>
@@ -4308,7 +4411,7 @@
         <v>25636500</v>
       </c>
       <c r="AO34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP34" s="1" t="n">
         <v>0</v>
@@ -4320,6 +4423,9 @@
         <v>0</v>
       </c>
       <c r="AS34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4328,10 +4434,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>0.3003</v>
@@ -4415,7 +4521,7 @@
         <v>35207500</v>
       </c>
       <c r="AO35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP35" s="1" t="n">
         <v>0</v>
@@ -4427,6 +4533,9 @@
         <v>0</v>
       </c>
       <c r="AS35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4435,10 +4544,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>0.333</v>
@@ -4522,7 +4631,7 @@
         <v>48351800</v>
       </c>
       <c r="AO36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP36" s="1" t="n">
         <v>0</v>
@@ -4534,6 +4643,9 @@
         <v>0</v>
       </c>
       <c r="AS36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,10 +4654,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>0.3691</v>
@@ -4629,7 +4741,7 @@
         <v>66403200</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP37" s="1" t="n">
         <v>0</v>
@@ -4641,6 +4753,9 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4649,10 +4764,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>0.4092</v>
@@ -4736,7 +4851,7 @@
         <v>91194000</v>
       </c>
       <c r="AO38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP38" s="1" t="n">
         <v>0</v>
@@ -4748,6 +4863,9 @@
         <v>0</v>
       </c>
       <c r="AS38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4756,10 +4874,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>0.4537</v>
@@ -4843,7 +4961,7 @@
         <v>125240000</v>
       </c>
       <c r="AO39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP39" s="1" t="n">
         <v>0</v>
@@ -4855,6 +4973,9 @@
         <v>0</v>
       </c>
       <c r="AS39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4863,10 +4984,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>0.5029</v>
@@ -4950,7 +5071,7 @@
         <v>171996600</v>
       </c>
       <c r="AO40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP40" s="1" t="n">
         <v>0</v>
@@ -4962,6 +5083,9 @@
         <v>0</v>
       </c>
       <c r="AS40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4970,10 +5094,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>0.5575</v>
@@ -5057,7 +5181,7 @@
         <v>236209100</v>
       </c>
       <c r="AO41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP41" s="1" t="n">
         <v>0</v>
@@ -5069,6 +5193,9 @@
         <v>0</v>
       </c>
       <c r="AS41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5077,10 +5204,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>0.6181</v>
@@ -5164,7 +5291,7 @@
         <v>324394500</v>
       </c>
       <c r="AO42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP42" s="1" t="n">
         <v>0</v>
@@ -5176,6 +5303,9 @@
         <v>0</v>
       </c>
       <c r="AS42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5184,10 +5314,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>0.6852</v>
@@ -5271,7 +5401,7 @@
         <v>445502700</v>
       </c>
       <c r="AO43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP43" s="1" t="n">
         <v>0</v>
@@ -5283,6 +5413,9 @@
         <v>0</v>
       </c>
       <c r="AS43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5291,10 +5424,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>0.7596</v>
@@ -5378,7 +5511,7 @@
         <v>611825000</v>
       </c>
       <c r="AO44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP44" s="1" t="n">
         <v>0</v>
@@ -5390,6 +5523,9 @@
         <v>0</v>
       </c>
       <c r="AS44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5398,10 +5534,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>0.88</v>
@@ -5485,7 +5621,7 @@
         <v>840241300</v>
       </c>
       <c r="AO45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP45" s="1" t="n">
         <v>0</v>
@@ -5497,6 +5633,9 @@
         <v>0</v>
       </c>
       <c r="AS45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT45" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5505,10 +5644,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>0.96</v>
@@ -5592,7 +5731,7 @@
         <v>1153933700</v>
       </c>
       <c r="AO46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP46" s="1" t="n">
         <v>0</v>
@@ -5604,6 +5743,9 @@
         <v>0</v>
       </c>
       <c r="AS46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT46" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5612,10 +5754,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>1.04</v>
@@ -5699,7 +5841,7 @@
         <v>1584738800</v>
       </c>
       <c r="AO47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP47" s="1" t="n">
         <v>0</v>
@@ -5711,6 +5853,9 @@
         <v>0</v>
       </c>
       <c r="AS47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT47" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5719,10 +5864,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G48" s="1" t="n">
         <v>1.12</v>
@@ -5806,7 +5951,7 @@
         <v>2176379000</v>
       </c>
       <c r="AO48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP48" s="1" t="n">
         <v>0</v>
@@ -5818,6 +5963,9 @@
         <v>0</v>
       </c>
       <c r="AS48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5826,10 +5974,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>1.2</v>
@@ -5913,7 +6061,7 @@
         <v>2988899900</v>
       </c>
       <c r="AO49" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP49" s="1" t="n">
         <v>0</v>
@@ -5925,6 +6073,9 @@
         <v>0</v>
       </c>
       <c r="AS49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5933,10 +6084,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>1.28</v>
@@ -6020,7 +6171,7 @@
         <v>4104764200</v>
       </c>
       <c r="AO50" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP50" s="1" t="n">
         <v>0</v>
@@ -6032,6 +6183,9 @@
         <v>0</v>
       </c>
       <c r="AS50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6040,10 +6194,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>1.36</v>
@@ -6127,7 +6281,7 @@
         <v>5637220800</v>
       </c>
       <c r="AO51" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP51" s="1" t="n">
         <v>0</v>
@@ -6139,6 +6293,9 @@
         <v>0</v>
       </c>
       <c r="AS51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT51" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6147,10 +6304,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>1.44</v>
@@ -6234,7 +6391,7 @@
         <v>7741798900</v>
       </c>
       <c r="AO52" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP52" s="1" t="n">
         <v>0</v>
@@ -6246,6 +6403,9 @@
         <v>0</v>
       </c>
       <c r="AS52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6254,10 +6414,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>1.52</v>
@@ -6341,7 +6501,7 @@
         <v>10632091900</v>
       </c>
       <c r="AO53" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP53" s="1" t="n">
         <v>0</v>
@@ -6353,6 +6513,9 @@
         <v>0</v>
       </c>
       <c r="AS53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT53" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6361,10 +6524,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G54" s="1" t="n">
         <v>1.6</v>
@@ -6448,7 +6611,7 @@
         <v>14601435700</v>
       </c>
       <c r="AO54" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP54" s="1" t="n">
         <v>0</v>
@@ -6460,6 +6623,9 @@
         <v>0</v>
       </c>
       <c r="AS54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT54" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6468,10 +6634,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>1.68</v>
@@ -6555,7 +6721,7 @@
         <v>20052678900</v>
       </c>
       <c r="AO55" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP55" s="1" t="n">
         <v>0</v>
@@ -6567,6 +6733,9 @@
         <v>0</v>
       </c>
       <c r="AS55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6575,10 +6744,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G56" s="1" t="n">
         <v>1.76</v>
@@ -6662,7 +6831,7 @@
         <v>27539067900</v>
       </c>
       <c r="AO56" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP56" s="1" t="n">
         <v>0</v>
@@ -6674,6 +6843,9 @@
         <v>0</v>
       </c>
       <c r="AS56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT56" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6682,10 +6854,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>1.84</v>
@@ -6769,7 +6941,7 @@
         <v>37820396200</v>
       </c>
       <c r="AO57" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP57" s="1" t="n">
         <v>0</v>
@@ -6781,6 +6953,9 @@
         <v>0</v>
       </c>
       <c r="AS57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT57" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6789,10 +6964,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>1.92</v>
@@ -6876,7 +7051,7 @@
         <v>38198600162</v>
       </c>
       <c r="AO58" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP58" s="1" t="n">
         <v>0</v>
@@ -6888,6 +7063,9 @@
         <v>0</v>
       </c>
       <c r="AS58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT58" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6896,10 +7074,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G59" s="1" t="n">
         <v>2</v>
@@ -6983,7 +7161,7 @@
         <v>40000000000</v>
       </c>
       <c r="AO59" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP59" s="1" t="n">
         <v>0</v>
@@ -6995,6 +7173,9 @@
         <v>0</v>
       </c>
       <c r="AS59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT59" s="0" t="n">
         <v>0</v>
       </c>
     </row>
